--- a/Field.xlsx
+++ b/Field.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-200" yWindow="4740" windowWidth="22100" windowHeight="8340" tabRatio="500"/>
+    <workbookView xWindow="15380" yWindow="0" windowWidth="13760" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="118">
   <si>
     <t>gi-bill-chapter</t>
   </si>
@@ -117,36 +117,12 @@
     <t>buy-up-rate-form</t>
   </si>
   <si>
-    <t>ENROLLED</t>
-  </si>
-  <si>
-    <t>ENROLLED_OLD</t>
-  </si>
-  <si>
-    <t>CALENDAR</t>
-  </si>
-  <si>
-    <t>WORKING</t>
-  </si>
-  <si>
-    <t>NUMBER_NON_TRADITIONAL_TERMS</t>
-  </si>
-  <si>
-    <t>LENGTH_NON_TRADITIONAL_TERMS</t>
-  </si>
-  <si>
-    <t>KICKER_ELIGIBLE</t>
-  </si>
-  <si>
     <t>KICKER</t>
   </si>
   <si>
     <t>BUY_UP_FORM</t>
   </si>
   <si>
-    <t>BUY_UP_RATE</t>
-  </si>
-  <si>
     <t>calc-housing-allow-rate-row</t>
   </si>
   <si>
@@ -336,9 +312,6 @@
     <t>YELLOW_RIBBON_AMOUNT_FORM</t>
   </si>
   <si>
-    <t>SCHOLAR</t>
-  </si>
-  <si>
     <t>tuition_assist</t>
   </si>
   <si>
@@ -349,6 +322,57 @@
   </si>
   <si>
     <t>rop_old</t>
+  </si>
+  <si>
+    <t>calendar</t>
+  </si>
+  <si>
+    <t>ojt_working</t>
+  </si>
+  <si>
+    <t>CALENDAR_FORM</t>
+  </si>
+  <si>
+    <t>ENROLLED_FORM</t>
+  </si>
+  <si>
+    <t>ENROLLED_FORM_OLD_GI_BILL</t>
+  </si>
+  <si>
+    <t>WORKING_FORM</t>
+  </si>
+  <si>
+    <t>SCHOLARSHIP_AMOUNT_FORM</t>
+  </si>
+  <si>
+    <t>NUMBER_NON_TRADITIONAL_TERMS_FORM</t>
+  </si>
+  <si>
+    <t>LENGTH_NON_TRADITIONAL_TERMS_FORM</t>
+  </si>
+  <si>
+    <t>KICKER_ELIG_FORM</t>
+  </si>
+  <si>
+    <t>number_nontrad_terms</t>
+  </si>
+  <si>
+    <t>length_nontrad_terms</t>
+  </si>
+  <si>
+    <t>kicker_elig</t>
+  </si>
+  <si>
+    <t>kicker</t>
+  </si>
+  <si>
+    <t>buy_up_elig</t>
+  </si>
+  <si>
+    <t>BUY_UP_RATE_FORM</t>
+  </si>
+  <si>
+    <t>buy_up</t>
   </si>
 </sst>
 </file>
@@ -748,20 +772,20 @@
   <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -770,26 +794,26 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -798,12 +822,12 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -812,12 +836,12 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -826,12 +850,12 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -842,7 +866,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -851,96 +875,96 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -949,12 +973,12 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -965,349 +989,373 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>103</v>
+      </c>
+      <c r="D18" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>106</v>
+      </c>
+      <c r="D19" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>108</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>109</v>
+      </c>
+      <c r="D21" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>110</v>
+      </c>
+      <c r="D22" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>116</v>
+      </c>
+      <c r="D25" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Field.xlsx
+++ b/Field.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15380" yWindow="0" windowWidth="13760" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="14540" yWindow="0" windowWidth="13760" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="123">
   <si>
     <t>gi-bill-chapter</t>
   </si>
@@ -373,6 +373,21 @@
   </si>
   <si>
     <t>buy_up</t>
+  </si>
+  <si>
+    <t>yellow_ribbon_elig</t>
+  </si>
+  <si>
+    <t>number_of_terms</t>
+  </si>
+  <si>
+    <t>tier</t>
+  </si>
+  <si>
+    <t>tuition_out_of_state</t>
+  </si>
+  <si>
+    <t>tuition_net_price</t>
   </si>
 </sst>
 </file>
@@ -421,8 +436,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -433,13 +456,21 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -769,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1204,7 +1235,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -1215,7 +1246,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -1226,7 +1257,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -1237,7 +1268,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -1248,7 +1279,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -1259,7 +1290,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -1270,7 +1301,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -1281,7 +1312,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -1292,7 +1323,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -1303,7 +1334,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -1314,7 +1345,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -1325,7 +1356,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -1336,7 +1367,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -1347,7 +1378,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>78</v>
       </c>
@@ -1356,6 +1387,43 @@
       </c>
       <c r="C46" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="D51" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/Field.xlsx
+++ b/Field.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="126">
   <si>
     <t>gi-bill-chapter</t>
   </si>
@@ -375,19 +375,28 @@
     <t>buy_up</t>
   </si>
   <si>
-    <t>yellow_ribbon_elig</t>
-  </si>
-  <si>
-    <t>number_of_terms</t>
-  </si>
-  <si>
-    <t>tier</t>
-  </si>
-  <si>
-    <t>tuition_out_of_state</t>
-  </si>
-  <si>
     <t>tuition_net_price</t>
+  </si>
+  <si>
+    <t>calc_tier</t>
+  </si>
+  <si>
+    <t>calc_old_gi_bill</t>
+  </si>
+  <si>
+    <t>calc_yellow_ribbon_elig</t>
+  </si>
+  <si>
+    <t>calc_tuition_out_of_state</t>
+  </si>
+  <si>
+    <t>calc_number_of_terms</t>
+  </si>
+  <si>
+    <t>calc_tuition_fees_cap</t>
+  </si>
+  <si>
+    <t>calc_tuition_fees_per_term</t>
   </si>
 </sst>
 </file>
@@ -436,8 +445,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -456,7 +483,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -464,6 +491,15 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -471,6 +507,15 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -800,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1394,7 +1439,7 @@
         <v>78</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1402,7 +1447,7 @@
         <v>78</v>
       </c>
       <c r="D48" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1410,7 +1455,7 @@
         <v>78</v>
       </c>
       <c r="D49" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1418,12 +1463,36 @@
         <v>78</v>
       </c>
       <c r="D50" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>78</v>
+      </c>
       <c r="D51" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="D54" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Field.xlsx
+++ b/Field.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="129">
   <si>
     <t>gi-bill-chapter</t>
   </si>
@@ -397,6 +397,15 @@
   </si>
   <si>
     <t>calc_tuition_fees_per_term</t>
+  </si>
+  <si>
+    <t>calc_term_length</t>
+  </si>
+  <si>
+    <t>calc_acad_year_length</t>
+  </si>
+  <si>
+    <t>calc_rop_old</t>
   </si>
 </sst>
 </file>
@@ -845,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1491,8 +1500,35 @@
       </c>
     </row>
     <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>78</v>
+      </c>
       <c r="D54" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/Field.xlsx
+++ b/Field.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="147">
   <si>
     <t>gi-bill-chapter</t>
   </si>
@@ -375,9 +375,6 @@
     <t>buy_up</t>
   </si>
   <si>
-    <t>tuition_net_price</t>
-  </si>
-  <si>
     <t>calc_tier</t>
   </si>
   <si>
@@ -406,6 +403,63 @@
   </si>
   <si>
     <t>calc_rop_old</t>
+  </si>
+  <si>
+    <t>calc_rop_book</t>
+  </si>
+  <si>
+    <t>calc_rop_ojt</t>
+  </si>
+  <si>
+    <t>calc_kicker_benefit</t>
+  </si>
+  <si>
+    <t>calc_vre_only</t>
+  </si>
+  <si>
+    <t>calc_tuition_net_price</t>
+  </si>
+  <si>
+    <t>calc_buy_up_rate</t>
+  </si>
+  <si>
+    <t>enlistment_service</t>
+  </si>
+  <si>
+    <t>enlistment-service</t>
+  </si>
+  <si>
+    <t>ENLISTMENT_SERVICE</t>
+  </si>
+  <si>
+    <t>consecutive-service</t>
+  </si>
+  <si>
+    <t>CONSECUTIVE_SERVICE</t>
+  </si>
+  <si>
+    <t>consecutive_service</t>
+  </si>
+  <si>
+    <t>calc_monthly_rate_final</t>
+  </si>
+  <si>
+    <t>calc_only_tuition_fees</t>
+  </si>
+  <si>
+    <t>calc_monthlyrate</t>
+  </si>
+  <si>
+    <t>calc_term1</t>
+  </si>
+  <si>
+    <t>calc_term2</t>
+  </si>
+  <si>
+    <t>calc_term3</t>
+  </si>
+  <si>
+    <t>calc_term4</t>
   </si>
 </sst>
 </file>
@@ -454,8 +508,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -492,7 +564,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -509,6 +581,15 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -525,6 +606,15 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -854,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:A57"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -940,27 +1030,30 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>136</v>
+      </c>
+      <c r="D6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -968,13 +1061,10 @@
         <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -982,13 +1072,13 @@
         <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -996,13 +1086,13 @@
         <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1010,13 +1100,13 @@
         <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1024,13 +1114,13 @@
         <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1038,13 +1128,13 @@
         <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1052,13 +1142,13 @@
         <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1066,10 +1156,13 @@
         <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>107</v>
+      </c>
+      <c r="D15" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1077,13 +1170,13 @@
         <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1091,13 +1184,10 @@
         <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1105,13 +1195,13 @@
         <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1119,13 +1209,13 @@
         <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1133,13 +1223,13 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1147,13 +1237,13 @@
         <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1161,13 +1251,13 @@
         <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1175,13 +1265,13 @@
         <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1189,13 +1279,13 @@
         <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1203,13 +1293,13 @@
         <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1217,10 +1307,13 @@
         <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1228,10 +1321,13 @@
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>116</v>
+      </c>
+      <c r="D27" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1239,10 +1335,10 @@
         <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1250,10 +1346,10 @@
         <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1261,10 +1357,10 @@
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1272,10 +1368,10 @@
         <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1283,180 +1379,186 @@
         <v>78</v>
       </c>
       <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s">
         <v>40</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
         <v>41</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
         <v>43</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
         <v>44</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s">
         <v>45</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
         <v>56</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
         <v>57</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
         <v>58</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C41" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" t="s">
         <v>59</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" t="s">
         <v>60</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C43" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" t="s">
         <v>61</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" t="s">
         <v>62</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C45" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" t="s">
         <v>63</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C46" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" t="s">
         <v>64</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C47" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" t="s">
         <v>65</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C48" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1472,7 +1574,7 @@
         <v>78</v>
       </c>
       <c r="D50" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1480,7 +1582,7 @@
         <v>78</v>
       </c>
       <c r="D51" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1488,7 +1590,7 @@
         <v>78</v>
       </c>
       <c r="D52" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1496,7 +1598,7 @@
         <v>78</v>
       </c>
       <c r="D53" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1504,7 +1606,7 @@
         <v>78</v>
       </c>
       <c r="D54" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1512,7 +1614,7 @@
         <v>78</v>
       </c>
       <c r="D55" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1520,7 +1622,7 @@
         <v>78</v>
       </c>
       <c r="D56" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1528,7 +1630,113 @@
         <v>78</v>
       </c>
       <c r="D57" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="D70" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="D71" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/Field.xlsx
+++ b/Field.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="155">
   <si>
     <t>gi-bill-chapter</t>
   </si>
@@ -460,6 +460,30 @@
   </si>
   <si>
     <t>calc_term4</t>
+  </si>
+  <si>
+    <t>calc_tuition_fees_term_1</t>
+  </si>
+  <si>
+    <t>calc_tuition_fees_term_2</t>
+  </si>
+  <si>
+    <t>calc_tuition_fees_term_3</t>
+  </si>
+  <si>
+    <t>calc_tuition_fees_total</t>
+  </si>
+  <si>
+    <t>calc_yr_ben_term_1</t>
+  </si>
+  <si>
+    <t>calc_yr_ben_term_2</t>
+  </si>
+  <si>
+    <t>calc_yr_ben_term_3</t>
+  </si>
+  <si>
+    <t>calc_yr_ben_total</t>
   </si>
 </sst>
 </file>
@@ -508,8 +532,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -564,7 +606,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="69">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -590,6 +632,15 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -615,6 +666,15 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -944,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1730,13 +1790,74 @@
       </c>
     </row>
     <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>78</v>
+      </c>
       <c r="D70" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>78</v>
+      </c>
       <c r="D71" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="D77" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="D78" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="D79" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/Field.xlsx
+++ b/Field.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="176">
   <si>
     <t>gi-bill-chapter</t>
   </si>
@@ -484,6 +484,69 @@
   </si>
   <si>
     <t>calc_yr_ben_total</t>
+  </si>
+  <si>
+    <t>calc_yr_ben_school_term_1</t>
+  </si>
+  <si>
+    <t>calc_yr_ben_va_term_1</t>
+  </si>
+  <si>
+    <t>calc_yr_ben_school_term_2</t>
+  </si>
+  <si>
+    <t>calc_yr_ben_va_term_2</t>
+  </si>
+  <si>
+    <t>calc_yr_ben_school_term_3</t>
+  </si>
+  <si>
+    <t>calc_yr_ben_va_term_3</t>
+  </si>
+  <si>
+    <t>calc_yr_ben_school_total</t>
+  </si>
+  <si>
+    <t>calc_yr_ben_va_total</t>
+  </si>
+  <si>
+    <t>calc_total_to_school</t>
+  </si>
+  <si>
+    <t>calc_total_scholarship_ta</t>
+  </si>
+  <si>
+    <t>calc_total_left_to_pay</t>
+  </si>
+  <si>
+    <t>spouse-active-duty</t>
+  </si>
+  <si>
+    <t>SPOUSE_ACTIVE_DUTY</t>
+  </si>
+  <si>
+    <t>spouse_active_duty</t>
+  </si>
+  <si>
+    <t>online-classes</t>
+  </si>
+  <si>
+    <t>ONLINE_CLASSES</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>calc_housing_allow_term_1</t>
+  </si>
+  <si>
+    <t>calc_housing_allow_term_2</t>
+  </si>
+  <si>
+    <t>calc_housing_allow_term_3</t>
+  </si>
+  <si>
+    <t>calc_housing_allow_total</t>
   </si>
 </sst>
 </file>
@@ -532,8 +595,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="69">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -606,7 +675,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="69">
+  <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -641,6 +710,9 @@
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -675,6 +747,9 @@
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1004,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1051,13 +1126,13 @@
         <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1065,13 +1140,13 @@
         <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1079,13 +1154,13 @@
         <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1093,13 +1168,13 @@
         <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1107,38 +1182,41 @@
         <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>138</v>
+      </c>
+      <c r="D8" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1146,13 +1224,10 @@
         <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" t="s">
-        <v>87</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1160,13 +1235,13 @@
         <v>78</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1174,13 +1249,13 @@
         <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1188,13 +1263,13 @@
         <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1202,13 +1277,13 @@
         <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1216,13 +1291,13 @@
         <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1230,13 +1305,13 @@
         <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1244,10 +1319,13 @@
         <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>107</v>
+      </c>
+      <c r="D17" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1255,13 +1333,13 @@
         <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1269,13 +1347,10 @@
         <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1283,13 +1358,13 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1297,13 +1372,13 @@
         <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1311,13 +1386,13 @@
         <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1325,13 +1400,13 @@
         <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1339,13 +1414,13 @@
         <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1353,13 +1428,13 @@
         <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1367,13 +1442,13 @@
         <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1381,13 +1456,13 @@
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1395,10 +1470,13 @@
         <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="D28" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1406,10 +1484,13 @@
         <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>116</v>
+      </c>
+      <c r="D29" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1417,10 +1498,10 @@
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1428,10 +1509,10 @@
         <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1439,10 +1520,10 @@
         <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1450,10 +1531,10 @@
         <v>78</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1461,10 +1542,10 @@
         <v>78</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1472,10 +1553,10 @@
         <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1483,10 +1564,10 @@
         <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1494,10 +1575,10 @@
         <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1505,10 +1586,10 @@
         <v>78</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1516,10 +1597,10 @@
         <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1527,10 +1608,10 @@
         <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1538,10 +1619,10 @@
         <v>78</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1549,10 +1630,10 @@
         <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1560,10 +1641,10 @@
         <v>78</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1571,10 +1652,10 @@
         <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1582,10 +1663,10 @@
         <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1593,10 +1674,10 @@
         <v>78</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C46" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1604,10 +1685,10 @@
         <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1615,26 +1696,32 @@
         <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>78</v>
       </c>
-      <c r="D49" t="s">
-        <v>119</v>
+      <c r="B49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>78</v>
       </c>
-      <c r="D50" t="s">
-        <v>131</v>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1642,7 +1729,7 @@
         <v>78</v>
       </c>
       <c r="D51" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1650,7 +1737,7 @@
         <v>78</v>
       </c>
       <c r="D52" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1658,7 +1745,7 @@
         <v>78</v>
       </c>
       <c r="D53" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1666,7 +1753,7 @@
         <v>78</v>
       </c>
       <c r="D54" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1674,7 +1761,7 @@
         <v>78</v>
       </c>
       <c r="D55" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1682,7 +1769,7 @@
         <v>78</v>
       </c>
       <c r="D56" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1690,7 +1777,7 @@
         <v>78</v>
       </c>
       <c r="D57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1698,7 +1785,7 @@
         <v>78</v>
       </c>
       <c r="D58" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1706,7 +1793,7 @@
         <v>78</v>
       </c>
       <c r="D59" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1714,7 +1801,7 @@
         <v>78</v>
       </c>
       <c r="D60" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1722,7 +1809,7 @@
         <v>78</v>
       </c>
       <c r="D61" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1730,7 +1817,7 @@
         <v>78</v>
       </c>
       <c r="D62" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1738,7 +1825,7 @@
         <v>78</v>
       </c>
       <c r="D63" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1746,7 +1833,7 @@
         <v>78</v>
       </c>
       <c r="D64" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1754,7 +1841,7 @@
         <v>78</v>
       </c>
       <c r="D65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1762,7 +1849,7 @@
         <v>78</v>
       </c>
       <c r="D66" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1770,7 +1857,7 @@
         <v>78</v>
       </c>
       <c r="D67" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1778,7 +1865,7 @@
         <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1786,7 +1873,7 @@
         <v>78</v>
       </c>
       <c r="D69" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1794,7 +1881,7 @@
         <v>78</v>
       </c>
       <c r="D70" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1802,7 +1889,7 @@
         <v>78</v>
       </c>
       <c r="D71" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1810,7 +1897,7 @@
         <v>78</v>
       </c>
       <c r="D72" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1818,7 +1905,7 @@
         <v>78</v>
       </c>
       <c r="D73" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1826,7 +1913,7 @@
         <v>78</v>
       </c>
       <c r="D74" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1834,7 +1921,7 @@
         <v>78</v>
       </c>
       <c r="D75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1842,22 +1929,187 @@
         <v>78</v>
       </c>
       <c r="D76" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="D78" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="D77" t="s">
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="D79" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="D78" t="s">
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="D80" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="D79" t="s">
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>78</v>
+      </c>
+      <c r="D81" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>78</v>
+      </c>
+      <c r="D83" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>78</v>
+      </c>
+      <c r="D84" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>78</v>
+      </c>
+      <c r="D85" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>78</v>
+      </c>
+      <c r="D86" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>78</v>
+      </c>
+      <c r="D87" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>78</v>
+      </c>
+      <c r="D88" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>78</v>
+      </c>
+      <c r="D90" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>78</v>
+      </c>
+      <c r="D91" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>78</v>
+      </c>
+      <c r="D92" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>78</v>
+      </c>
+      <c r="D93" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>78</v>
+      </c>
+      <c r="D94" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>78</v>
+      </c>
+      <c r="D95" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>78</v>
+      </c>
+      <c r="D96" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/Field.xlsx
+++ b/Field.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="194">
   <si>
     <t>gi-bill-chapter</t>
   </si>
@@ -547,6 +547,60 @@
   </si>
   <si>
     <t>calc_housing_allow_total</t>
+  </si>
+  <si>
+    <t>calc_monthly_rate_display</t>
+  </si>
+  <si>
+    <t>calc_book_stipend_term_1</t>
+  </si>
+  <si>
+    <t>calc_book_stipend_term_2</t>
+  </si>
+  <si>
+    <t>calc_book_stipend_term_3</t>
+  </si>
+  <si>
+    <t>calc_book_stipend_total</t>
+  </si>
+  <si>
+    <t>calc_total_to_you</t>
+  </si>
+  <si>
+    <t>calc_total_term_1</t>
+  </si>
+  <si>
+    <t>calc_total_term_2</t>
+  </si>
+  <si>
+    <t>calc_total_term_3</t>
+  </si>
+  <si>
+    <t>calc_gi_bill_total_text</t>
+  </si>
+  <si>
+    <t>calc_total_year</t>
+  </si>
+  <si>
+    <t>tuition-fees-input</t>
+  </si>
+  <si>
+    <t>TUITION_FEES_INPUT</t>
+  </si>
+  <si>
+    <t>in-state-tuition-fees</t>
+  </si>
+  <si>
+    <t>IN_STATE_TUITION_FEES</t>
+  </si>
+  <si>
+    <t>books-input</t>
+  </si>
+  <si>
+    <t>BOOKS_INPUT</t>
+  </si>
+  <si>
+    <t>CALENDAR</t>
   </si>
 </sst>
 </file>
@@ -595,8 +649,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -675,7 +747,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="93">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -713,6 +785,15 @@
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -750,6 +831,15 @@
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1079,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1254,22 +1344,19 @@
       <c r="C12" t="s">
         <v>89</v>
       </c>
-      <c r="D12" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1277,13 +1364,10 @@
         <v>78</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1291,13 +1375,13 @@
         <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c r="C15" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1305,13 +1389,10 @@
         <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1319,13 +1400,13 @@
         <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1333,13 +1414,13 @@
         <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1347,10 +1428,13 @@
         <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>96</v>
+      </c>
+      <c r="D19" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1358,13 +1442,13 @@
         <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1372,13 +1456,13 @@
         <v>78</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1386,13 +1470,10 @@
         <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1400,13 +1481,13 @@
         <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1414,13 +1495,13 @@
         <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1428,13 +1509,10 @@
         <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
-      </c>
-      <c r="D25" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1442,13 +1520,13 @@
         <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1456,13 +1534,13 @@
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1470,13 +1548,13 @@
         <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1484,13 +1562,13 @@
         <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1498,10 +1576,13 @@
         <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>110</v>
+      </c>
+      <c r="D30" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1509,10 +1590,13 @@
         <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1520,186 +1604,192 @@
         <v>78</v>
       </c>
       <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" t="s">
         <v>37</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s">
         <v>38</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C38" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
         <v>39</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C39" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
         <v>40</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C40" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
         <v>41</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" t="s">
         <v>43</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" t="s">
         <v>44</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C43" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" t="s">
         <v>45</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C44" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" t="s">
         <v>56</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" t="s">
         <v>57</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C46" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" t="s">
         <v>58</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C47" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" t="s">
         <v>59</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C48" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1707,10 +1797,10 @@
         <v>78</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1718,42 +1808,54 @@
         <v>78</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>78</v>
       </c>
-      <c r="D51" t="s">
-        <v>119</v>
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>78</v>
       </c>
-      <c r="D52" t="s">
-        <v>131</v>
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>78</v>
       </c>
-      <c r="D53" t="s">
-        <v>141</v>
+      <c r="B53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>78</v>
       </c>
-      <c r="D54" t="s">
-        <v>142</v>
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1761,7 +1863,7 @@
         <v>78</v>
       </c>
       <c r="D55" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1769,7 +1871,7 @@
         <v>78</v>
       </c>
       <c r="D56" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1777,7 +1879,7 @@
         <v>78</v>
       </c>
       <c r="D57" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1785,7 +1887,7 @@
         <v>78</v>
       </c>
       <c r="D58" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1793,7 +1895,7 @@
         <v>78</v>
       </c>
       <c r="D59" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1801,7 +1903,7 @@
         <v>78</v>
       </c>
       <c r="D60" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1809,7 +1911,7 @@
         <v>78</v>
       </c>
       <c r="D61" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1817,7 +1919,7 @@
         <v>78</v>
       </c>
       <c r="D62" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1825,7 +1927,7 @@
         <v>78</v>
       </c>
       <c r="D63" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1833,7 +1935,7 @@
         <v>78</v>
       </c>
       <c r="D64" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1841,7 +1943,7 @@
         <v>78</v>
       </c>
       <c r="D65" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1849,7 +1951,7 @@
         <v>78</v>
       </c>
       <c r="D66" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1857,7 +1959,7 @@
         <v>78</v>
       </c>
       <c r="D67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1865,7 +1967,7 @@
         <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1873,7 +1975,7 @@
         <v>78</v>
       </c>
       <c r="D69" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1881,7 +1983,7 @@
         <v>78</v>
       </c>
       <c r="D70" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1889,7 +1991,7 @@
         <v>78</v>
       </c>
       <c r="D71" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1897,7 +1999,7 @@
         <v>78</v>
       </c>
       <c r="D72" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1905,7 +2007,7 @@
         <v>78</v>
       </c>
       <c r="D73" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1913,7 +2015,7 @@
         <v>78</v>
       </c>
       <c r="D74" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1921,7 +2023,7 @@
         <v>78</v>
       </c>
       <c r="D75" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1929,7 +2031,7 @@
         <v>78</v>
       </c>
       <c r="D76" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1937,7 +2039,7 @@
         <v>78</v>
       </c>
       <c r="D77" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1945,7 +2047,7 @@
         <v>78</v>
       </c>
       <c r="D78" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1953,7 +2055,7 @@
         <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1961,7 +2063,7 @@
         <v>78</v>
       </c>
       <c r="D80" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1969,7 +2071,7 @@
         <v>78</v>
       </c>
       <c r="D81" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1977,7 +2079,7 @@
         <v>78</v>
       </c>
       <c r="D82" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1985,7 +2087,7 @@
         <v>78</v>
       </c>
       <c r="D83" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1993,7 +2095,7 @@
         <v>78</v>
       </c>
       <c r="D84" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2001,7 +2103,7 @@
         <v>78</v>
       </c>
       <c r="D85" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2009,7 +2111,7 @@
         <v>78</v>
       </c>
       <c r="D86" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2017,7 +2119,7 @@
         <v>78</v>
       </c>
       <c r="D87" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2025,7 +2127,7 @@
         <v>78</v>
       </c>
       <c r="D88" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2033,7 +2135,7 @@
         <v>78</v>
       </c>
       <c r="D89" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2041,7 +2143,7 @@
         <v>78</v>
       </c>
       <c r="D90" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2049,7 +2151,7 @@
         <v>78</v>
       </c>
       <c r="D91" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2057,7 +2159,7 @@
         <v>78</v>
       </c>
       <c r="D92" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2065,7 +2167,7 @@
         <v>78</v>
       </c>
       <c r="D93" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2073,7 +2175,7 @@
         <v>78</v>
       </c>
       <c r="D94" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2081,7 +2183,7 @@
         <v>78</v>
       </c>
       <c r="D95" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2089,26 +2191,136 @@
         <v>78</v>
       </c>
       <c r="D96" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>78</v>
+      </c>
+      <c r="D97" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>78</v>
+      </c>
+      <c r="D98" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>78</v>
+      </c>
+      <c r="D99" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>78</v>
+      </c>
+      <c r="D100" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>78</v>
+      </c>
+      <c r="D101" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>78</v>
+      </c>
+      <c r="D102" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>78</v>
+      </c>
+      <c r="D103" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>78</v>
+      </c>
+      <c r="D104" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>78</v>
+      </c>
+      <c r="D105" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>78</v>
+      </c>
+      <c r="D106" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>78</v>
+      </c>
+      <c r="D107" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>78</v>
+      </c>
+      <c r="D108" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>78</v>
+      </c>
+      <c r="D109" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>78</v>
+      </c>
+      <c r="D110" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>78</v>
+      </c>
+      <c r="D111" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
         <v>78</v>
       </c>
     </row>
